--- a/Output/Descriptives/Descriptives_stats.xlsx
+++ b/Output/Descriptives/Descriptives_stats.xlsx
@@ -1,21 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/estela_blanco_uc_cl/Documents/ANID Iniciación_2024_2027/Imputation_AmbientalData_2024/Imputation_ClimData24/Output/Descriptives/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_896E5DD48F79A8D366075C52F37BD2723A4A747D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7F9CC8-9C2A-AE45-B8FC-C761E7E476BF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-2160" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>S01-Cerrillos</t>
+  </si>
+  <si>
+    <t>S02-Cerro Navia</t>
+  </si>
+  <si>
+    <t>S03-El Bosque</t>
+  </si>
+  <si>
+    <t>S04-Independencia</t>
+  </si>
+  <si>
+    <t>S05-La Florida</t>
+  </si>
+  <si>
+    <t>S06-Las Condes</t>
+  </si>
+  <si>
+    <t>S07-Parque O'Higgins</t>
+  </si>
+  <si>
+    <t>S08-Pudahuel</t>
+  </si>
+  <si>
+    <t>S09-Puente Alto</t>
+  </si>
+  <si>
+    <t>S10-Talagante</t>
+  </si>
+  <si>
+    <t>S11-Quilicura</t>
+  </si>
+  <si>
+    <t>daily_hum</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>missing_pct</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>daily_o3</t>
+  </si>
+  <si>
+    <t>-Inf</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>daily_pm10</t>
+  </si>
+  <si>
+    <t>daily_pm25</t>
+  </si>
+  <si>
+    <t>daily_temp</t>
+  </si>
+  <si>
+    <t>daily_wspd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +164,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,95 +461,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>S01-Cerrillos</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>S02-Cerro Navia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>S03-El Bosque</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>S04-Independencia</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>S05-La Florida</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>S06-Las Condes</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>S07-Parque O'Higgins</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>S08-Pudahuel</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>S09-Puente Alto</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>S10-Talagante</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>S11-Quilicura</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>47316</v>
@@ -477,16 +571,12 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -504,16 +594,16 @@
         <v>15.18197658393014</v>
       </c>
       <c r="H3">
-        <v>13.57949230373348</v>
+        <v>13.579492303733479</v>
       </c>
       <c r="I3">
-        <v>14.77287978678454</v>
+        <v>14.772879786784539</v>
       </c>
       <c r="J3">
         <v>14.18315470192028</v>
       </c>
       <c r="K3">
-        <v>14.91828990272067</v>
+        <v>14.918289902720669</v>
       </c>
       <c r="L3">
         <v>14.5080736883531</v>
@@ -525,34 +615,30 @@
         <v>13.53345904141894</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>60.11146358825808</v>
+        <v>60.111463588258083</v>
       </c>
       <c r="D4">
-        <v>63.70341846291059</v>
+        <v>63.703418462910591</v>
       </c>
       <c r="E4">
-        <v>60.28461542356229</v>
+        <v>60.284615423562293</v>
       </c>
       <c r="F4">
-        <v>58.44482110840583</v>
+        <v>58.444821108405833</v>
       </c>
       <c r="G4">
-        <v>56.84547225408277</v>
+        <v>56.845472254082772</v>
       </c>
       <c r="H4">
-        <v>57.74816423613853</v>
+        <v>57.748164236138528</v>
       </c>
       <c r="I4">
         <v>57.15286651687147</v>
@@ -561,223 +647,203 @@
         <v>60.35671148327787</v>
       </c>
       <c r="K4">
-        <v>60.95811607835017</v>
+        <v>60.958116078350173</v>
       </c>
       <c r="L4">
-        <v>58.95711648615666</v>
+        <v>58.957116486156657</v>
       </c>
       <c r="M4">
-        <v>69.63966885390458</v>
+        <v>69.639668853904581</v>
       </c>
       <c r="N4">
-        <v>58.36456478456269</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+        <v>58.364564784562688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>60.04166666666667</v>
+        <v>60.041666666666671</v>
       </c>
       <c r="D5">
-        <v>63.72459130434783</v>
+        <v>63.724591304347832</v>
       </c>
       <c r="E5">
-        <v>60.47047916666666</v>
+        <v>60.470479166666657</v>
       </c>
       <c r="F5">
         <v>58.1398875</v>
       </c>
       <c r="G5">
-        <v>56.5440875</v>
+        <v>56.544087500000003</v>
       </c>
       <c r="H5">
-        <v>56.92186041666666</v>
+        <v>56.921860416666661</v>
       </c>
       <c r="I5">
-        <v>56.00345416666666</v>
+        <v>56.003454166666657</v>
       </c>
       <c r="J5">
-        <v>60.02465</v>
+        <v>60.024650000000001</v>
       </c>
       <c r="K5">
-        <v>61.07984583333334</v>
+        <v>61.079845833333337</v>
       </c>
       <c r="L5">
-        <v>58.93402916666667</v>
+        <v>58.934029166666669</v>
       </c>
       <c r="M5">
-        <v>70.05193541666667</v>
+        <v>70.051935416666666</v>
       </c>
       <c r="N5">
-        <v>57.88713958333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>57.887139583333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>11.53818916666667</v>
+        <v>11.538189166666671</v>
       </c>
       <c r="D6">
-        <v>50.14668492079014</v>
+        <v>50.146684920790143</v>
       </c>
       <c r="E6">
         <v>3.461764130647369</v>
       </c>
       <c r="F6">
-        <v>1.779777038920399</v>
+        <v>1.7797770389203991</v>
       </c>
       <c r="G6">
         <v>18.18893017797771</v>
       </c>
       <c r="H6">
-        <v>2.875024447486798</v>
+        <v>2.8750244474867981</v>
       </c>
       <c r="I6">
-        <v>7.901427733229024</v>
+        <v>7.9014277332290241</v>
       </c>
       <c r="J6">
-        <v>2.034030901623313</v>
+        <v>2.0340309016233129</v>
       </c>
       <c r="K6">
-        <v>6.199882652063368</v>
+        <v>6.1998826520633683</v>
       </c>
       <c r="L6">
-        <v>12.73225112458439</v>
+        <v>12.732251124584391</v>
       </c>
       <c r="M6">
-        <v>14.60981811069822</v>
+        <v>14.609818110698219</v>
       </c>
       <c r="N6">
-        <v>54.66458048112655</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>54.664580481126549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>15.87219742901339</v>
       </c>
       <c r="D7">
-        <v>99.6736125</v>
+        <v>99.673612500000004</v>
       </c>
       <c r="E7">
-        <v>98.95496249999999</v>
+        <v>98.954962499999993</v>
       </c>
       <c r="F7">
-        <v>95.47245833333334</v>
+        <v>95.472458333333336</v>
       </c>
       <c r="G7">
-        <v>97.74304583333333</v>
+        <v>97.743045833333326</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>97.41957916666667</v>
+        <v>97.419579166666665</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
-        <v>99.00001666666667</v>
+        <v>99.000016666666667</v>
       </c>
       <c r="L7">
         <v>97.59034166666666</v>
       </c>
       <c r="M7">
-        <v>99.67711666666666</v>
+        <v>99.677116666666663</v>
       </c>
       <c r="N7">
         <v>91.9859923076923</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>60.04166666666667</v>
+        <v>60.041666666666671</v>
       </c>
       <c r="D8">
-        <v>63.72459130434783</v>
+        <v>63.724591304347832</v>
       </c>
       <c r="E8">
-        <v>60.47047916666666</v>
+        <v>60.470479166666657</v>
       </c>
       <c r="F8">
         <v>58.1398875</v>
       </c>
       <c r="G8">
-        <v>56.5440875</v>
+        <v>56.544087500000003</v>
       </c>
       <c r="H8">
-        <v>56.92186041666666</v>
+        <v>56.921860416666661</v>
       </c>
       <c r="I8">
-        <v>56.00345416666666</v>
+        <v>56.003454166666657</v>
       </c>
       <c r="J8">
-        <v>60.02465</v>
+        <v>60.024650000000001</v>
       </c>
       <c r="K8">
-        <v>61.07984583333334</v>
+        <v>61.079845833333337</v>
       </c>
       <c r="L8">
-        <v>58.93402916666667</v>
+        <v>58.934029166666669</v>
       </c>
       <c r="M8">
-        <v>70.05193541666667</v>
+        <v>70.051935416666666</v>
       </c>
       <c r="N8">
-        <v>57.88713958333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>daily_hum</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>57.887139583333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>14.6119918173937</v>
+        <v>14.611991817393699</v>
       </c>
       <c r="D9">
         <v>15.37499785714286</v>
@@ -786,43 +852,39 @@
         <v>20.94093333333333</v>
       </c>
       <c r="F9">
-        <v>18.75642857142857</v>
+        <v>18.756428571428572</v>
       </c>
       <c r="G9">
-        <v>19.62499375</v>
+        <v>19.624993750000002</v>
       </c>
       <c r="H9">
-        <v>24.76097692307692</v>
+        <v>24.760976923076921</v>
       </c>
       <c r="I9">
-        <v>11.53818916666667</v>
+        <v>11.538189166666671</v>
       </c>
       <c r="J9">
-        <v>20.61004583333333</v>
+        <v>20.610045833333331</v>
       </c>
       <c r="K9">
         <v>13.42777933333333</v>
       </c>
       <c r="L9">
-        <v>16.06249791666667</v>
+        <v>16.062497916666668</v>
       </c>
       <c r="M9">
-        <v>19.2211625</v>
+        <v>19.221162499999998</v>
       </c>
       <c r="N9">
-        <v>15.2867925</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>15.286792500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>38850</v>
@@ -861,64 +923,56 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>73.86887916666666</v>
+        <v>73.868879166666659</v>
       </c>
       <c r="D11">
-        <v>7.81202649921021</v>
+        <v>7.8120264992102104</v>
       </c>
       <c r="E11">
-        <v>7.840091196819133</v>
+        <v>7.8400911968191327</v>
       </c>
       <c r="F11">
-        <v>7.141084112696477</v>
+        <v>7.1410841126964772</v>
       </c>
       <c r="G11">
-        <v>7.287721299150602</v>
+        <v>7.2877212991506024</v>
       </c>
       <c r="H11">
-        <v>7.848827407297611</v>
+        <v>7.8488274072976107</v>
       </c>
       <c r="I11">
         <v>10.14093529545541</v>
       </c>
       <c r="J11">
-        <v>8.389573732227767</v>
+        <v>8.3895737322277668</v>
       </c>
       <c r="K11">
-        <v>7.382505721866838</v>
+        <v>7.3825057218668384</v>
       </c>
       <c r="M11">
-        <v>6.139878330422105</v>
+        <v>6.1398783304221052</v>
       </c>
       <c r="N11">
-        <v>7.837386956614331</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+        <v>7.8373869566143313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>14.72015536543213</v>
+        <v>14.720155365432131</v>
       </c>
       <c r="D12">
         <v>15.70240725492461</v>
@@ -936,31 +990,27 @@
         <v>14.48149966551582</v>
       </c>
       <c r="I12">
-        <v>17.75357135268414</v>
+        <v>17.753571352684141</v>
       </c>
       <c r="J12">
-        <v>14.89033390318535</v>
+        <v>14.890333903185351</v>
       </c>
       <c r="K12">
-        <v>14.03074219207116</v>
+        <v>14.030742192071161</v>
       </c>
       <c r="M12">
         <v>14.84381543207277</v>
       </c>
       <c r="N12">
-        <v>14.76144669236709</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+        <v>14.761446692367089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>14.91666666666667</v>
@@ -969,7 +1019,7 @@
         <v>16.17767125</v>
       </c>
       <c r="E13">
-        <v>15.432835</v>
+        <v>15.432835000000001</v>
       </c>
       <c r="F13">
         <v>13.95833333333333</v>
@@ -978,10 +1028,10 @@
         <v>12.58927083333333</v>
       </c>
       <c r="H13">
-        <v>14.6669425</v>
+        <v>14.666942499999999</v>
       </c>
       <c r="I13">
-        <v>17.57136583333333</v>
+        <v>17.571365833333331</v>
       </c>
       <c r="J13">
         <v>15.61655208333333</v>
@@ -990,28 +1040,24 @@
         <v>14.375</v>
       </c>
       <c r="M13">
-        <v>15.22134166666667</v>
+        <v>15.221341666666669</v>
       </c>
       <c r="N13">
-        <v>15.00949104166667</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>15.009491041666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>52.395853706239</v>
+        <v>52.395853706239002</v>
       </c>
       <c r="E14">
         <v>12.67357715626834</v>
@@ -1020,16 +1066,16 @@
         <v>11.14805398005085</v>
       </c>
       <c r="G14">
-        <v>27.69411304517895</v>
+        <v>27.694113045178948</v>
       </c>
       <c r="H14">
-        <v>14.88362996283982</v>
+        <v>14.883629962839819</v>
       </c>
       <c r="I14">
-        <v>9.46606688832388</v>
+        <v>9.4660668883238799</v>
       </c>
       <c r="J14">
-        <v>13.10385292391942</v>
+        <v>13.103852923919421</v>
       </c>
       <c r="K14">
         <v>12.59534519851359</v>
@@ -1038,31 +1084,27 @@
         <v>100</v>
       </c>
       <c r="M14">
-        <v>30.6473694504205</v>
+        <v>30.647369450420499</v>
       </c>
       <c r="N14">
-        <v>55.56424799530608</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>55.564247995306083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>30.92473730064186</v>
+        <v>30.924737300641858</v>
       </c>
       <c r="D15">
-        <v>49.50137916666667</v>
+        <v>49.501379166666673</v>
       </c>
       <c r="E15">
-        <v>48.66666666666666</v>
+        <v>48.666666666666657</v>
       </c>
       <c r="F15">
         <v>70.29151538461538</v>
@@ -1074,36 +1116,30 @@
         <v>52.375</v>
       </c>
       <c r="I15">
-        <v>73.86887916666666</v>
+        <v>73.868879166666659</v>
       </c>
       <c r="J15">
-        <v>52.43478260869566</v>
+        <v>52.434782608695663</v>
       </c>
       <c r="K15">
-        <v>49.16666666666666</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-Inf</t>
-        </is>
+        <v>49.166666666666657</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>46.64089708333334</v>
+        <v>46.640897083333343</v>
       </c>
       <c r="N15">
-        <v>51.021135</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+        <v>51.021135000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
       </c>
       <c r="C16">
         <v>14.91666666666667</v>
@@ -1112,7 +1148,7 @@
         <v>16.17767125</v>
       </c>
       <c r="E16">
-        <v>15.432835</v>
+        <v>15.432835000000001</v>
       </c>
       <c r="F16">
         <v>13.95833333333333</v>
@@ -1121,10 +1157,10 @@
         <v>12.58927083333333</v>
       </c>
       <c r="H16">
-        <v>14.6669425</v>
+        <v>14.666942499999999</v>
       </c>
       <c r="I16">
-        <v>17.57136583333333</v>
+        <v>17.571365833333331</v>
       </c>
       <c r="J16">
         <v>15.61655208333333</v>
@@ -1133,25 +1169,21 @@
         <v>14.375</v>
       </c>
       <c r="M16">
-        <v>15.22134166666667</v>
+        <v>15.221341666666669</v>
       </c>
       <c r="N16">
-        <v>15.00949104166667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>daily_o3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>15.009491041666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>8.01608746742046</v>
+        <v>8.0160874674204603</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1177,28 +1209,22 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+      <c r="L17" t="s">
+        <v>25</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1.04574625</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.0457462500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>48461</v>
@@ -1237,43 +1263,39 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
         <v>292.0625</v>
       </c>
       <c r="D19">
-        <v>31.17330863307646</v>
+        <v>31.173308633076459</v>
       </c>
       <c r="E19">
         <v>37.50911313938019</v>
       </c>
       <c r="F19">
-        <v>32.10436838938014</v>
+        <v>32.104368389380141</v>
       </c>
       <c r="G19">
-        <v>27.89012037761553</v>
+        <v>27.890120377615531</v>
       </c>
       <c r="H19">
-        <v>28.08728396925534</v>
+        <v>28.087283969255338</v>
       </c>
       <c r="I19">
-        <v>19.02195429955565</v>
+        <v>19.021954299555649</v>
       </c>
       <c r="J19">
-        <v>31.38469872800834</v>
+        <v>31.384698728008338</v>
       </c>
       <c r="K19">
-        <v>34.8577996266153</v>
+        <v>34.857799626615297</v>
       </c>
       <c r="L19">
         <v>25.11317103435222</v>
@@ -1282,130 +1304,118 @@
         <v>23.66740771101821</v>
       </c>
       <c r="N19">
-        <v>37.39391472504172</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+        <v>37.393914725041718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>64.62136144204887</v>
+        <v>64.621361442048865</v>
       </c>
       <c r="D20">
-        <v>67.8596491109528</v>
+        <v>67.859649110952802</v>
       </c>
       <c r="E20">
-        <v>66.944150814869</v>
+        <v>66.944150814869005</v>
       </c>
       <c r="F20">
-        <v>71.93622942288825</v>
+        <v>71.936229422888246</v>
       </c>
       <c r="G20">
         <v>65.37930583878628</v>
       </c>
       <c r="H20">
-        <v>66.72102228450557</v>
+        <v>66.721022284505565</v>
       </c>
       <c r="I20">
-        <v>52.34659321972102</v>
+        <v>52.346593219721022</v>
       </c>
       <c r="J20">
-        <v>69.31080218767599</v>
+        <v>69.310802187675989</v>
       </c>
       <c r="K20">
-        <v>65.53418874305831</v>
+        <v>65.534188743058309</v>
       </c>
       <c r="L20">
-        <v>64.74756024873629</v>
+        <v>64.747560248736292</v>
       </c>
       <c r="M20">
-        <v>46.46394343409096</v>
+        <v>46.463943434090957</v>
       </c>
       <c r="N20">
-        <v>81.08888927815627</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+        <v>81.088889278156273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>58.16666666666666</v>
+        <v>58.166666666666657</v>
       </c>
       <c r="D21">
-        <v>61.60416666666667</v>
+        <v>61.604166666666671</v>
       </c>
       <c r="E21">
-        <v>55.2717803030303</v>
+        <v>55.271780303030297</v>
       </c>
       <c r="F21">
-        <v>66.10416666666667</v>
+        <v>66.104166666666671</v>
       </c>
       <c r="G21">
-        <v>59.29166666666667</v>
+        <v>59.291666666666671</v>
       </c>
       <c r="H21">
-        <v>60.79166666666667</v>
+        <v>60.791666666666671</v>
       </c>
       <c r="I21">
-        <v>50.58333333333333</v>
+        <v>50.583333333333329</v>
       </c>
       <c r="J21">
-        <v>62.20833333333333</v>
+        <v>62.208333333333329</v>
       </c>
       <c r="K21">
-        <v>55.02083333333333</v>
+        <v>55.020833333333329</v>
       </c>
       <c r="L21">
         <v>61.5625</v>
       </c>
       <c r="M21">
-        <v>40.91287878787878</v>
+        <v>40.912878787878782</v>
       </c>
       <c r="N21">
-        <v>74.02083333333333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>74.020833333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22">
         <v>4.875</v>
       </c>
       <c r="D22">
-        <v>50.18580089966751</v>
+        <v>50.185800899667512</v>
       </c>
       <c r="E22">
-        <v>1.623313123410913</v>
+        <v>1.6233131234109131</v>
       </c>
       <c r="F22">
         <v>1.740661060043027</v>
       </c>
       <c r="G22">
-        <v>18.20848816741639</v>
+        <v>18.208488167416391</v>
       </c>
       <c r="H22">
         <v>1.740661060043027</v>
@@ -1420,46 +1430,42 @@
         <v>1.290827302953256</v>
       </c>
       <c r="L22">
-        <v>1.388617250146685</v>
+        <v>1.3886172501466849</v>
       </c>
       <c r="M22">
-        <v>18.52141599843536</v>
+        <v>18.521415998435359</v>
       </c>
       <c r="N22">
-        <v>54.9970663015842</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>54.997066301584198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
       <c r="C23">
         <v>13.83638852835019</v>
       </c>
       <c r="D23">
-        <v>273.2291666666666</v>
+        <v>273.22916666666657</v>
       </c>
       <c r="E23">
-        <v>269.4583333333334</v>
+        <v>269.45833333333343</v>
       </c>
       <c r="F23">
         <v>292.0625</v>
       </c>
       <c r="G23">
-        <v>218.5416666666667</v>
+        <v>218.54166666666671</v>
       </c>
       <c r="H23">
-        <v>205.2708333333333</v>
+        <v>205.27083333333329</v>
       </c>
       <c r="I23">
-        <v>145.6458333333333</v>
+        <v>145.64583333333329</v>
       </c>
       <c r="J23">
         <v>253</v>
@@ -1468,91 +1474,83 @@
         <v>249.875</v>
       </c>
       <c r="L23">
-        <v>172.4166666666667</v>
+        <v>172.41666666666671</v>
       </c>
       <c r="M23">
         <v>174.5625</v>
       </c>
       <c r="N23">
-        <v>285.6041666666666</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+        <v>285.60416666666657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>58.16666666666666</v>
+        <v>58.166666666666657</v>
       </c>
       <c r="D24">
-        <v>61.60416666666667</v>
+        <v>61.604166666666671</v>
       </c>
       <c r="E24">
-        <v>55.2717803030303</v>
+        <v>55.271780303030297</v>
       </c>
       <c r="F24">
-        <v>66.10416666666667</v>
+        <v>66.104166666666671</v>
       </c>
       <c r="G24">
-        <v>59.29166666666667</v>
+        <v>59.291666666666671</v>
       </c>
       <c r="H24">
-        <v>60.79166666666667</v>
+        <v>60.791666666666671</v>
       </c>
       <c r="I24">
-        <v>50.58333333333333</v>
+        <v>50.583333333333329</v>
       </c>
       <c r="J24">
-        <v>62.20833333333333</v>
+        <v>62.208333333333329</v>
       </c>
       <c r="K24">
-        <v>55.02083333333333</v>
+        <v>55.020833333333329</v>
       </c>
       <c r="L24">
         <v>61.5625</v>
       </c>
       <c r="M24">
-        <v>40.91287878787878</v>
+        <v>40.912878787878782</v>
       </c>
       <c r="N24">
-        <v>74.02083333333333</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>daily_pm10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>74.020833333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
       <c r="C25">
         <v>31.08725911525443</v>
       </c>
       <c r="D25">
-        <v>8.416666666666668</v>
+        <v>8.4166666666666679</v>
       </c>
       <c r="E25">
-        <v>8.354166666666666</v>
+        <v>8.3541666666666661</v>
       </c>
       <c r="F25">
-        <v>8.208333333333332</v>
+        <v>8.2083333333333321</v>
       </c>
       <c r="G25">
-        <v>9.708333333333332</v>
+        <v>9.7083333333333321</v>
       </c>
       <c r="H25">
-        <v>5.833333333333334</v>
+        <v>5.8333333333333339</v>
       </c>
       <c r="I25">
         <v>4.875</v>
@@ -1573,16 +1571,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
         <v>49981</v>
@@ -1621,16 +1615,12 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
       </c>
       <c r="C27">
         <v>193.1666666666666</v>
@@ -1639,16 +1629,16 @@
         <v>18.4093704763369</v>
       </c>
       <c r="E27">
-        <v>22.51425106340797</v>
+        <v>22.514251063407968</v>
       </c>
       <c r="F27">
-        <v>18.97762390709852</v>
+        <v>18.977623907098518</v>
       </c>
       <c r="G27">
         <v>14.4874401236906</v>
       </c>
       <c r="H27">
-        <v>15.01825030942448</v>
+        <v>15.018250309424481</v>
       </c>
       <c r="I27">
         <v>10.38480482519171</v>
@@ -1657,100 +1647,92 @@
         <v>15.42132587910841</v>
       </c>
       <c r="K27">
-        <v>21.01053048658122</v>
+        <v>21.010530486581221</v>
       </c>
       <c r="L27">
-        <v>13.55103630832271</v>
+        <v>13.551036308322709</v>
       </c>
       <c r="M27">
-        <v>16.55120489745491</v>
+        <v>16.551204897454909</v>
       </c>
       <c r="N27">
-        <v>16.19566685180454</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+        <v>16.195666851804539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>26.14127784967109</v>
+        <v>26.141277849671091</v>
       </c>
       <c r="D28">
-        <v>29.57070501577162</v>
+        <v>29.570705015771619</v>
       </c>
       <c r="E28">
-        <v>29.84353572111956</v>
+        <v>29.843535721119562</v>
       </c>
       <c r="F28">
-        <v>30.01045853355889</v>
+        <v>30.010458533558889</v>
       </c>
       <c r="G28">
-        <v>26.44080872292703</v>
+        <v>26.440808722927031</v>
       </c>
       <c r="H28">
         <v>25.86845729850339</v>
       </c>
       <c r="I28">
-        <v>20.76814360041369</v>
+        <v>20.768143600413691</v>
       </c>
       <c r="J28">
-        <v>25.72383866991264</v>
+        <v>25.723838669912642</v>
       </c>
       <c r="K28">
-        <v>27.55520827426339</v>
+        <v>27.555208274263389</v>
       </c>
       <c r="L28">
-        <v>24.64720341051247</v>
+        <v>24.647203410512471</v>
       </c>
       <c r="M28">
-        <v>22.5156828949919</v>
+        <v>22.515682894991901</v>
       </c>
       <c r="N28">
         <v>25.78300296694028</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>20.58333333333334</v>
+        <v>20.583333333333339</v>
       </c>
       <c r="D29">
-        <v>24.04166666666666</v>
+        <v>24.041666666666661</v>
       </c>
       <c r="E29">
-        <v>20.79166666666667</v>
+        <v>20.791666666666671</v>
       </c>
       <c r="F29">
-        <v>23.41666666666667</v>
+        <v>23.416666666666671</v>
       </c>
       <c r="G29">
-        <v>22.08333333333333</v>
+        <v>22.083333333333329</v>
       </c>
       <c r="H29">
-        <v>21.04166666666666</v>
+        <v>21.041666666666661</v>
       </c>
       <c r="I29">
-        <v>18.41666666666666</v>
+        <v>18.416666666666661</v>
       </c>
       <c r="J29">
-        <v>20.7282196969697</v>
+        <v>20.728219696969699</v>
       </c>
       <c r="K29">
         <v>19.375</v>
@@ -1762,79 +1744,71 @@
         <v>16.25</v>
       </c>
       <c r="N29">
-        <v>20.41666666666666</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>20.416666666666661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1.5</v>
       </c>
       <c r="D30">
-        <v>52.8065714844514</v>
+        <v>52.806571484451403</v>
       </c>
       <c r="E30">
-        <v>2.034030901623313</v>
+        <v>2.0340309016233129</v>
       </c>
       <c r="F30">
         <v>2.327400743203599</v>
       </c>
       <c r="G30">
-        <v>19.24506160766673</v>
+        <v>19.245061607666731</v>
       </c>
       <c r="H30">
-        <v>11.67611969489536</v>
+        <v>11.676119694895361</v>
       </c>
       <c r="I30">
-        <v>2.483864658713084</v>
+        <v>2.4838646587130842</v>
       </c>
       <c r="J30">
-        <v>4.009387834930568</v>
+        <v>4.0093878349305676</v>
       </c>
       <c r="K30">
-        <v>4.146293761001369</v>
+        <v>4.1462937610013686</v>
       </c>
       <c r="L30">
         <v>2.36651672208097</v>
       </c>
       <c r="M30">
-        <v>19.1472716604733</v>
+        <v>19.147271660473301</v>
       </c>
       <c r="N30">
-        <v>2.22961079601017</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>2.2296107960101699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
       </c>
       <c r="C31">
         <v>11.13382998773181</v>
       </c>
       <c r="D31">
-        <v>152.7916666666667</v>
+        <v>152.79166666666671</v>
       </c>
       <c r="E31">
         <v>193.1666666666666</v>
       </c>
       <c r="F31">
-        <v>153.7916666666667</v>
+        <v>153.79166666666671</v>
       </c>
       <c r="G31">
         <v>96.2</v>
@@ -1849,7 +1823,7 @@
         <v>103.375</v>
       </c>
       <c r="K31">
-        <v>172.7083333333333</v>
+        <v>172.70833333333329</v>
       </c>
       <c r="L31">
         <v>104.75</v>
@@ -1861,40 +1835,36 @@
         <v>108.875</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>20.58333333333334</v>
+        <v>20.583333333333339</v>
       </c>
       <c r="D32">
-        <v>24.04166666666666</v>
+        <v>24.041666666666661</v>
       </c>
       <c r="E32">
-        <v>20.79166666666667</v>
+        <v>20.791666666666671</v>
       </c>
       <c r="F32">
-        <v>23.41666666666667</v>
+        <v>23.416666666666671</v>
       </c>
       <c r="G32">
-        <v>22.08333333333333</v>
+        <v>22.083333333333329</v>
       </c>
       <c r="H32">
-        <v>21.04166666666666</v>
+        <v>21.041666666666661</v>
       </c>
       <c r="I32">
-        <v>18.41666666666666</v>
+        <v>18.416666666666661</v>
       </c>
       <c r="J32">
-        <v>20.7282196969697</v>
+        <v>20.728219696969699</v>
       </c>
       <c r="K32">
         <v>19.375</v>
@@ -1906,22 +1876,18 @@
         <v>16.25</v>
       </c>
       <c r="N32">
-        <v>20.41666666666666</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>daily_pm25</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>20.416666666666661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>17.12621208777963</v>
+        <v>17.126212087779631</v>
       </c>
       <c r="D33">
         <v>2.708333333333333</v>
@@ -1933,7 +1899,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="G33">
-        <v>3.869565217391304</v>
+        <v>3.8695652173913042</v>
       </c>
       <c r="H33">
         <v>2.208333333333333</v>
@@ -1942,7 +1908,7 @@
         <v>1.958333333333333</v>
       </c>
       <c r="J33">
-        <v>2.615384615384616</v>
+        <v>2.6153846153846159</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -1957,16 +1923,12 @@
         <v>2.708333333333333</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
       <c r="C34">
         <v>46594</v>
@@ -2005,64 +1967,56 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>30.59344166666667</v>
+        <v>30.593441666666671</v>
       </c>
       <c r="D35">
-        <v>5.015959203076642</v>
+        <v>5.0159592030766422</v>
       </c>
       <c r="E35">
-        <v>5.382826971807684</v>
+        <v>5.3828269718076838</v>
       </c>
       <c r="F35">
-        <v>5.403267110842091</v>
+        <v>5.4032671108420907</v>
       </c>
       <c r="G35">
-        <v>5.252319189267945</v>
+        <v>5.2523191892679453</v>
       </c>
       <c r="H35">
-        <v>5.670252356004765</v>
+        <v>5.6702523560047648</v>
       </c>
       <c r="I35">
-        <v>5.126170652852778</v>
+        <v>5.1261706528527782</v>
       </c>
       <c r="J35">
-        <v>5.372686873000369</v>
+        <v>5.3726868730003687</v>
       </c>
       <c r="K35">
-        <v>5.281896295172872</v>
+        <v>5.2818962951728716</v>
       </c>
       <c r="L35">
-        <v>5.210080005315488</v>
+        <v>5.2100800053154881</v>
       </c>
       <c r="M35">
-        <v>4.530002348044049</v>
+        <v>4.5300023480440492</v>
       </c>
       <c r="N35">
-        <v>5.497043110852943</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+        <v>5.4970431108529434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36">
         <v>15.46476297016007</v>
@@ -2071,10 +2025,10 @@
         <v>16.77038774061246</v>
       </c>
       <c r="E36">
-        <v>15.23036703379847</v>
+        <v>15.230367033798469</v>
       </c>
       <c r="F36">
-        <v>14.82039692825336</v>
+        <v>14.820396928253359</v>
       </c>
       <c r="G36">
         <v>17.06863965164942</v>
@@ -2089,31 +2043,27 @@
         <v>15.44803241009485</v>
       </c>
       <c r="K36">
-        <v>16.19021805511304</v>
+        <v>16.190218055113039</v>
       </c>
       <c r="L36">
         <v>14.73236268956963</v>
       </c>
       <c r="M36">
-        <v>14.37878062378294</v>
+        <v>14.378780623782941</v>
       </c>
       <c r="N36">
         <v>15.8905321641375</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>15.43819333333333</v>
+        <v>15.438193333333331</v>
       </c>
       <c r="D37">
         <v>16.92604166666667</v>
@@ -2125,16 +2075,16 @@
         <v>14.759375</v>
       </c>
       <c r="G37">
-        <v>17.17082916666667</v>
+        <v>17.170829166666671</v>
       </c>
       <c r="H37">
-        <v>15.59529979166667</v>
+        <v>15.595299791666671</v>
       </c>
       <c r="I37">
-        <v>15.10051645833333</v>
+        <v>15.100516458333329</v>
       </c>
       <c r="J37">
-        <v>15.35972083333333</v>
+        <v>15.359720833333331</v>
       </c>
       <c r="K37">
         <v>16.19461729166667</v>
@@ -2143,121 +2093,109 @@
         <v>14.60173708333333</v>
       </c>
       <c r="M37">
-        <v>14.42012916666667</v>
+        <v>14.420129166666671</v>
       </c>
       <c r="N37">
-        <v>16.01245833333333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>16.012458333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>1.234773333333332</v>
+        <v>1.2347733333333319</v>
       </c>
       <c r="D38">
         <v>53.3541951887346</v>
       </c>
       <c r="E38">
-        <v>3.559554077840798</v>
+        <v>3.5595540778407981</v>
       </c>
       <c r="F38">
-        <v>2.855466458048113</v>
+        <v>2.8554664580481131</v>
       </c>
       <c r="G38">
         <v>19.63622139644044</v>
       </c>
       <c r="H38">
-        <v>9.681204772149423</v>
+        <v>9.6812047721494228</v>
       </c>
       <c r="I38">
         <v>8.116565617054567</v>
       </c>
       <c r="J38">
-        <v>2.151378838255427</v>
+        <v>2.1513788382554271</v>
       </c>
       <c r="K38">
-        <v>15.31390573049091</v>
+        <v>15.313905730490911</v>
       </c>
       <c r="L38">
-        <v>4.18540973987874</v>
+        <v>4.1854097398787404</v>
       </c>
       <c r="M38">
-        <v>14.80539800508508</v>
+        <v>14.805398005085079</v>
       </c>
       <c r="N38">
-        <v>55.05574026990026</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>55.055740269900262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>17.15591273580712</v>
+        <v>17.155912735807121</v>
       </c>
       <c r="D39">
-        <v>28.21491666666667</v>
+        <v>28.214916666666671</v>
       </c>
       <c r="E39">
-        <v>28.203825</v>
+        <v>28.203824999999998</v>
       </c>
       <c r="F39">
         <v>28.0486</v>
       </c>
       <c r="G39">
-        <v>29.11805416666667</v>
+        <v>29.118054166666671</v>
       </c>
       <c r="H39">
-        <v>28.95880588235294</v>
+        <v>28.958805882352941</v>
       </c>
       <c r="I39">
-        <v>30.59344166666667</v>
+        <v>30.593441666666671</v>
       </c>
       <c r="J39">
-        <v>27.59305</v>
+        <v>27.593050000000002</v>
       </c>
       <c r="K39">
-        <v>28.94165833333333</v>
+        <v>28.941658333333329</v>
       </c>
       <c r="L39">
-        <v>26.5576375</v>
+        <v>26.557637499999998</v>
       </c>
       <c r="M39">
-        <v>25.95060769230769</v>
+        <v>25.950607692307688</v>
       </c>
       <c r="N39">
         <v>29.3461</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>15.43819333333333</v>
+        <v>15.438193333333331</v>
       </c>
       <c r="D40">
         <v>16.92604166666667</v>
@@ -2269,16 +2207,16 @@
         <v>14.759375</v>
       </c>
       <c r="G40">
-        <v>17.17082916666667</v>
+        <v>17.170829166666671</v>
       </c>
       <c r="H40">
-        <v>15.59529979166667</v>
+        <v>15.595299791666671</v>
       </c>
       <c r="I40">
-        <v>15.10051645833333</v>
+        <v>15.100516458333329</v>
       </c>
       <c r="J40">
-        <v>15.35972083333333</v>
+        <v>15.359720833333331</v>
       </c>
       <c r="K40">
         <v>16.19461729166667</v>
@@ -2287,70 +2225,62 @@
         <v>14.60173708333333</v>
       </c>
       <c r="M40">
-        <v>14.42012916666667</v>
+        <v>14.420129166666671</v>
       </c>
       <c r="N40">
-        <v>16.01245833333333</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>daily_temp</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>16.012458333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>5.318778601718043</v>
+        <v>5.3187786017180434</v>
       </c>
       <c r="D41">
-        <v>1.234773333333332</v>
+        <v>1.2347733333333319</v>
       </c>
       <c r="E41">
-        <v>2.227776817916667</v>
+        <v>2.2277768179166668</v>
       </c>
       <c r="F41">
-        <v>1.974880166666667</v>
+        <v>1.9748801666666671</v>
       </c>
       <c r="G41">
         <v>3.839679166666667</v>
       </c>
       <c r="H41">
-        <v>2.020485309166667</v>
+        <v>2.0204853091666668</v>
       </c>
       <c r="I41">
-        <v>2.696313791666667</v>
+        <v>2.6963137916666668</v>
       </c>
       <c r="J41">
-        <v>2.133679029166667</v>
+        <v>2.1336790291666672</v>
       </c>
       <c r="K41">
-        <v>3.46283775</v>
+        <v>3.4628377499999998</v>
       </c>
       <c r="L41">
-        <v>1.703818372083333</v>
+        <v>1.7038183720833331</v>
       </c>
       <c r="M41">
-        <v>2.638538583333333</v>
+        <v>2.6385385833333328</v>
       </c>
       <c r="N41">
         <v>2.712844458333334</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
       </c>
       <c r="C42">
         <v>46688</v>
@@ -2389,82 +2319,74 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>7.361410833333333</v>
+        <v>7.3614108333333332</v>
       </c>
       <c r="D43">
-        <v>0.8168836924328197</v>
+        <v>0.81688369243281966</v>
       </c>
       <c r="E43">
-        <v>0.6109854443959767</v>
+        <v>0.61098544439597668</v>
       </c>
       <c r="F43">
-        <v>0.4498836565731004</v>
+        <v>0.44988365657310042</v>
       </c>
       <c r="G43">
-        <v>0.2895810712401587</v>
+        <v>0.28958107124015869</v>
       </c>
       <c r="H43">
         <v>0.2556417523606187</v>
       </c>
       <c r="I43">
-        <v>1.102979653071338</v>
+        <v>1.1029796530713381</v>
       </c>
       <c r="J43">
-        <v>0.4265907004849611</v>
+        <v>0.42659070048496112</v>
       </c>
       <c r="K43">
-        <v>0.5647072374734257</v>
+        <v>0.56470723747342566</v>
       </c>
       <c r="L43">
-        <v>0.4962426540737367</v>
+        <v>0.49624265407373669</v>
       </c>
       <c r="M43">
-        <v>0.3756551391271256</v>
+        <v>0.37565513912712561</v>
       </c>
       <c r="N43">
-        <v>0.7188113775880375</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+        <v>0.71881137758803748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
       </c>
       <c r="C44">
         <v>1.271185546911795</v>
       </c>
       <c r="D44">
-        <v>2.099098372392549</v>
+        <v>2.0990983723925489</v>
       </c>
       <c r="E44">
-        <v>1.414499748257085</v>
+        <v>1.4144997482570849</v>
       </c>
       <c r="F44">
-        <v>1.207982140925007</v>
+        <v>1.2079821409250071</v>
       </c>
       <c r="G44">
-        <v>0.9557446703541945</v>
+        <v>0.95574467035419453</v>
       </c>
       <c r="H44">
-        <v>0.9393544740012919</v>
+        <v>0.93935447400129191</v>
       </c>
       <c r="I44">
         <v>1.370980059056554</v>
@@ -2473,34 +2395,30 @@
         <v>1.057791469270378</v>
       </c>
       <c r="K44">
-        <v>1.359873831510099</v>
+        <v>1.3598738315100991</v>
       </c>
       <c r="L44">
         <v>1.528381986901215</v>
       </c>
       <c r="M44">
-        <v>0.9849946687224372</v>
+        <v>0.98499466872243724</v>
       </c>
       <c r="N44">
         <v>1.565746786090003</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
       </c>
       <c r="C45">
         <v>1.1485800625</v>
       </c>
       <c r="D45">
-        <v>2.058342333333333</v>
+        <v>2.0583423333333331</v>
       </c>
       <c r="E45">
         <v>1.38490625</v>
@@ -2509,16 +2427,16 @@
         <v>1.178730027083333</v>
       </c>
       <c r="G45">
-        <v>0.958072625</v>
+        <v>0.95807262500000001</v>
       </c>
       <c r="H45">
-        <v>0.9426166666666667</v>
+        <v>0.94261666666666666</v>
       </c>
       <c r="I45">
-        <v>1.113580504166667</v>
+        <v>1.1135805041666671</v>
       </c>
       <c r="J45">
-        <v>1.027540625</v>
+        <v>1.0275406250000001</v>
       </c>
       <c r="K45">
         <v>1.3424076125</v>
@@ -2527,124 +2445,112 @@
         <v>1.506716291666667</v>
       </c>
       <c r="M45">
-        <v>0.9280284145833333</v>
+        <v>0.92802841458333329</v>
       </c>
       <c r="N45">
-        <v>1.550057248958333</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
+        <v>1.5500572489583331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>0.09578582307692307</v>
+        <v>9.5785823076923071E-2</v>
       </c>
       <c r="D46">
-        <v>50.18580089966751</v>
+        <v>50.185800899667512</v>
       </c>
       <c r="E46">
-        <v>6.023860747115196</v>
+        <v>6.0238607471151964</v>
       </c>
       <c r="F46">
-        <v>6.78662233522394</v>
+        <v>6.7866223352239397</v>
       </c>
       <c r="G46">
-        <v>17.87600234695873</v>
+        <v>17.876002346958732</v>
       </c>
       <c r="H46">
-        <v>2.659886563661256</v>
+        <v>2.6598865636612561</v>
       </c>
       <c r="I46">
         <v>14.37512223743399</v>
       </c>
       <c r="J46">
-        <v>4.322315665949541</v>
+        <v>4.3223156659495414</v>
       </c>
       <c r="K46">
         <v>2.542538627029141</v>
       </c>
       <c r="L46">
-        <v>6.96264424017211</v>
+        <v>6.9626442401721098</v>
       </c>
       <c r="M46">
-        <v>17.19147271660473</v>
+        <v>17.191472716604729</v>
       </c>
       <c r="N46">
-        <v>57.95032270682574</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>missing_pct</t>
-        </is>
+        <v>57.950322706825737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>16.98878082605835</v>
+        <v>16.988780826058349</v>
       </c>
       <c r="D47">
-        <v>4.646192857142857</v>
+        <v>4.6461928571428572</v>
       </c>
       <c r="E47">
         <v>4.040794</v>
       </c>
       <c r="F47">
-        <v>2.828217307692308</v>
+        <v>2.8282173076923081</v>
       </c>
       <c r="G47">
         <v>2.151498291666667</v>
       </c>
       <c r="H47">
-        <v>2.439540291666667</v>
+        <v>2.4395402916666669</v>
       </c>
       <c r="I47">
-        <v>7.361410833333333</v>
+        <v>7.3614108333333332</v>
       </c>
       <c r="J47">
-        <v>3.025809875</v>
+        <v>3.0258098750000002</v>
       </c>
       <c r="K47">
-        <v>3.396701428571429</v>
+        <v>3.3967014285714292</v>
       </c>
       <c r="L47">
-        <v>4.0122825</v>
+        <v>4.0122825000000004</v>
       </c>
       <c r="M47">
-        <v>5.046921578947368</v>
+        <v>5.0469215789473676</v>
       </c>
       <c r="N47">
-        <v>6.318740625</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>p50</t>
-        </is>
+        <v>6.3187406250000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
       </c>
       <c r="C48">
         <v>1.1485800625</v>
       </c>
       <c r="D48">
-        <v>2.058342333333333</v>
+        <v>2.0583423333333331</v>
       </c>
       <c r="E48">
         <v>1.38490625</v>
@@ -2653,16 +2559,16 @@
         <v>1.178730027083333</v>
       </c>
       <c r="G48">
-        <v>0.958072625</v>
+        <v>0.95807262500000001</v>
       </c>
       <c r="H48">
-        <v>0.9426166666666667</v>
+        <v>0.94261666666666666</v>
       </c>
       <c r="I48">
-        <v>1.113580504166667</v>
+        <v>1.1135805041666671</v>
       </c>
       <c r="J48">
-        <v>1.027540625</v>
+        <v>1.0275406250000001</v>
       </c>
       <c r="K48">
         <v>1.3424076125</v>
@@ -2671,58 +2577,54 @@
         <v>1.506716291666667</v>
       </c>
       <c r="M48">
-        <v>0.9280284145833333</v>
+        <v>0.92802841458333329</v>
       </c>
       <c r="N48">
-        <v>1.550057248958333</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>daily_wspd</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
+        <v>1.5500572489583331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>0.6512219800796225</v>
+        <v>0.65122198007962251</v>
       </c>
       <c r="D49">
-        <v>0.5030347875</v>
+        <v>0.50303478749999997</v>
       </c>
       <c r="E49">
-        <v>0.2141839125</v>
+        <v>0.21418391249999999</v>
       </c>
       <c r="F49">
-        <v>0.2467313375</v>
+        <v>0.24673133750000001</v>
       </c>
       <c r="G49">
-        <v>0.2838153</v>
+        <v>0.28381529999999999</v>
       </c>
       <c r="H49">
-        <v>0.2708385541666667</v>
+        <v>0.27083855416666669</v>
       </c>
       <c r="I49">
-        <v>0.2441941958333333</v>
+        <v>0.24419419583333329</v>
       </c>
       <c r="J49">
         <v>0.2362956083333333</v>
       </c>
       <c r="K49">
-        <v>0.1617938291666667</v>
+        <v>0.16179382916666671</v>
       </c>
       <c r="L49">
-        <v>0.09578582307692307</v>
+        <v>9.5785823076923071E-2</v>
       </c>
       <c r="M49">
-        <v>0.2248594708333334</v>
+        <v>0.22485947083333341</v>
       </c>
       <c r="N49">
-        <v>0.158537914375</v>
+        <v>0.15853791437500001</v>
       </c>
     </row>
   </sheetData>
